--- a/Output/olympics_facts_clean.xlsx
+++ b/Output/olympics_facts_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\github\Projects\Data_Olympics_proj_2\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13E28AD-A1BE-48C2-8045-BF6C8E66B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A97656E-11BA-409D-9FC0-012A415C251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="olympics_facts" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A0CBAA9A-C4DF-48F3-B8EF-B9EDB7CB61DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This column is the same as the Discipline column in the 1976 dataset</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="388">
   <si>
     <t>No.</t>
   </si>
@@ -61,9 +85,6 @@
     <t>Swimming</t>
   </si>
   <si>
-    <t>2004â€“2016</t>
-  </si>
-  <si>
     <t>Summer</t>
   </si>
   <si>
@@ -79,9 +100,6 @@
     <t>Gymnastics</t>
   </si>
   <si>
-    <t>1956â€“1964</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -94,105 +112,54 @@
     <t>Athletics</t>
   </si>
   <si>
-    <t>1920â€“1928</t>
-  </si>
-  <si>
     <t>Mark Spitz</t>
   </si>
   <si>
-    <t>1968â€“1972</t>
-  </si>
-  <si>
     <t>Carl Lewis</t>
   </si>
   <si>
-    <t>1984â€“1996</t>
-  </si>
-  <si>
-    <t>Marit BjÃ¸rgen</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Cross-country skiing</t>
   </si>
   <si>
-    <t>2002â€“2018</t>
-  </si>
-  <si>
     <t>Winter</t>
   </si>
   <si>
-    <t>Ole Einar BjÃ¸rndalen</t>
-  </si>
-  <si>
     <t>Biathlon</t>
   </si>
   <si>
-    <t>1998â€“2014</t>
-  </si>
-  <si>
-    <t>BjÃ¸rn DÃ¦hlie</t>
-  </si>
-  <si>
-    <t>1992â€“1998</t>
-  </si>
-  <si>
     <t>Birgit Fischer</t>
   </si>
   <si>
-    <t>East Germany Germany</t>
-  </si>
-  <si>
     <t>Canoeing</t>
   </si>
   <si>
-    <t>1980â€“2004</t>
-  </si>
-  <si>
     <t>Sawao Kato</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>1968â€“1976</t>
-  </si>
-  <si>
     <t>Jenny Thompson</t>
   </si>
   <si>
-    <t>1992â€“2004</t>
-  </si>
-  <si>
     <t>Matt Biondi</t>
   </si>
   <si>
-    <t>1984â€“1992</t>
-  </si>
-  <si>
     <t>Usain Bolt</t>
   </si>
   <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>2008â€“2016</t>
-  </si>
-  <si>
     <t>Ray Ewry</t>
   </si>
   <si>
-    <t>1900â€“1908</t>
-  </si>
-  <si>
     <t>Nikolai Andrianov</t>
   </si>
   <si>
-    <t>1972â€“1980</t>
-  </si>
-  <si>
     <t>Isabell Werth</t>
   </si>
   <si>
@@ -202,39 +169,21 @@
     <t>Equestrian</t>
   </si>
   <si>
-    <t>1992â€“2020</t>
-  </si>
-  <si>
     <t>Boris Shakhlin</t>
   </si>
   <si>
-    <t>VÄ›ra ÄŒÃ¡slavskÃ¡</t>
-  </si>
-  <si>
     <t>Czechoslovakia</t>
   </si>
   <si>
-    <t>1960â€“1968</t>
-  </si>
-  <si>
     <t>Viktor Chukarin</t>
   </si>
   <si>
-    <t>1952â€“1956</t>
-  </si>
-  <si>
     <t>Allyson Felix</t>
   </si>
   <si>
-    <t>2004â€“2020</t>
-  </si>
-  <si>
     <t>Katie Ledecky</t>
   </si>
   <si>
-    <t>2012â€“2020</t>
-  </si>
-  <si>
     <t>Jason Kenny</t>
   </si>
   <si>
@@ -244,33 +193,18 @@
     <t>Cycling</t>
   </si>
   <si>
-    <t>2008â€“2020</t>
-  </si>
-  <si>
-    <t>AladÃ¡r Gerevich</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>Fencing</t>
   </si>
   <si>
-    <t>1932â€“1960</t>
-  </si>
-  <si>
     <t>Caeleb Dressel</t>
   </si>
   <si>
-    <t>2016â€“2020</t>
-  </si>
-  <si>
     <t>Svetlana Romashina</t>
   </si>
   <si>
-    <t>Russia ROC</t>
-  </si>
-  <si>
     <t>Synchronized swimming</t>
   </si>
   <si>
@@ -280,9 +214,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>1936â€“1960</t>
-  </si>
-  <si>
     <t>Ryan Lochte</t>
   </si>
   <si>
@@ -295,54 +226,27 @@
     <t>Archery</t>
   </si>
   <si>
-    <t>1900â€“1920</t>
-  </si>
-  <si>
     <t>Lyubov Yegorova</t>
   </si>
   <si>
-    <t>Unified Team Russia</t>
-  </si>
-  <si>
-    <t>1992â€“1994</t>
-  </si>
-  <si>
     <t>Akinori Nakayama</t>
   </si>
   <si>
     <t>Valentina Vezzali</t>
   </si>
   <si>
-    <t>1996â€“2012</t>
-  </si>
-  <si>
     <t>Gert Fredriksson</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>1948â€“1960</t>
-  </si>
-  <si>
-    <t>Danuta KozÃ¡k</t>
-  </si>
-  <si>
     <t>Chris Hoy</t>
   </si>
   <si>
-    <t>2000â€“2012</t>
-  </si>
-  <si>
     <t>Vitaly Scherbo</t>
   </si>
   <si>
-    <t>Unified Team Belarus</t>
-  </si>
-  <si>
-    <t>1992â€“1996</t>
-  </si>
-  <si>
     <t>Ahn Hyun-SooViktor Ahn</t>
   </si>
   <si>
@@ -352,108 +256,54 @@
     <t>Short track speed skating</t>
   </si>
   <si>
-    <t>2006â€“2014</t>
-  </si>
-  <si>
     <t>Reiner Klimke</t>
   </si>
   <si>
-    <t>United Team of Germany West Germany</t>
-  </si>
-  <si>
-    <t>1964â€“1988</t>
-  </si>
-  <si>
-    <t>PÃ¡l KovÃ¡cs</t>
-  </si>
-  <si>
-    <t>Rudolf KÃ¡rpÃ¡ti</t>
-  </si>
-  <si>
     <t>Nedo Nadi</t>
   </si>
   <si>
-    <t>1912â€“1920</t>
-  </si>
-  <si>
     <t>Kristin Otto</t>
   </si>
   <si>
-    <t>East Germany</t>
-  </si>
-  <si>
     <t>Lidia Skoblikova</t>
   </si>
   <si>
     <t>Speed skating</t>
   </si>
   <si>
-    <t>1960â€“1964</t>
-  </si>
-  <si>
     <t>Amy Van Dyken</t>
   </si>
   <si>
-    <t>1996â€“2000</t>
-  </si>
-  <si>
-    <t>Ireen WÃ¼st</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>2006â€“2018</t>
-  </si>
-  <si>
     <t>Takashi Ono</t>
   </si>
   <si>
-    <t>1952â€“1964</t>
-  </si>
-  <si>
     <t>Carl Osburn</t>
   </si>
   <si>
     <t>Shooting</t>
   </si>
   <si>
-    <t>1912â€“1924</t>
-  </si>
-  <si>
     <t>Gary Hall, Jr.</t>
   </si>
   <si>
-    <t>1996â€“2004</t>
-  </si>
-  <si>
     <t>Ãgnes Keleti</t>
   </si>
   <si>
-    <t>Nadia ComÄƒneci</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>1976â€“1980</t>
-  </si>
-  <si>
     <t>Ian Thorpe</t>
   </si>
   <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>2000â€“2004</t>
-  </si>
-  <si>
     <t>Ville Ritola</t>
   </si>
   <si>
-    <t>1924â€“1928</t>
-  </si>
-  <si>
     <t>Emma McKeon</t>
   </si>
   <si>
@@ -463,18 +313,9 @@
     <t>Claudia Pechstein</t>
   </si>
   <si>
-    <t>1992â€“2006</t>
-  </si>
-  <si>
-    <t>Elisabeta LipÄƒ</t>
-  </si>
-  <si>
     <t>Rowing</t>
   </si>
   <si>
-    <t>1984â€“2004</t>
-  </si>
-  <si>
     <t>Yukio Endo</t>
   </si>
   <si>
@@ -484,15 +325,9 @@
     <t>France</t>
   </si>
   <si>
-    <t>2014â€“2018</t>
-  </si>
-  <si>
     <t>Aaron Peirsol</t>
   </si>
   <si>
-    <t>2000â€“2008</t>
-  </si>
-  <si>
     <t>Mitsuo Tsukahara</t>
   </si>
   <si>
@@ -502,15 +337,9 @@
     <t>Bradley Wiggins</t>
   </si>
   <si>
-    <t>2000â€“2016</t>
-  </si>
-  <si>
     <t>Krisztina Egerszegi</t>
   </si>
   <si>
-    <t>1988â€“1996</t>
-  </si>
-  <si>
     <t>Tom Jager</t>
   </si>
   <si>
@@ -526,12 +355,6 @@
     <t>Dana Vollmer</t>
   </si>
   <si>
-    <t>Hans GÃ¼nter Winkler</t>
-  </si>
-  <si>
-    <t>1956â€“1976</t>
-  </si>
-  <si>
     <t>Wu Minxia</t>
   </si>
   <si>
@@ -544,9 +367,6 @@
     <t>Thomas Alsgaard</t>
   </si>
   <si>
-    <t>1994â€“2002</t>
-  </si>
-  <si>
     <t>Anton Heida</t>
   </si>
   <si>
@@ -559,24 +379,15 @@
     <t>Ole Lilloe-Olsen</t>
   </si>
   <si>
-    <t>1920â€“1924</t>
-  </si>
-  <si>
     <t>Don Schollander</t>
   </si>
   <si>
-    <t>1964â€“1968</t>
-  </si>
-  <si>
     <t>Elaine Thompson-Herah</t>
   </si>
   <si>
     <t>Bonnie Blair</t>
   </si>
   <si>
-    <t>1988â€“1994</t>
-  </si>
-  <si>
     <t>Lisa Carrington</t>
   </si>
   <si>
@@ -589,18 +400,12 @@
     <t>Missy Franklin</t>
   </si>
   <si>
-    <t>2012â€“2016</t>
-  </si>
-  <si>
     <t>Alfred Lane</t>
   </si>
   <si>
     <t>Steve Redgrave</t>
   </si>
   <si>
-    <t>1984â€“2000</t>
-  </si>
-  <si>
     <t>Johnny Weissmuller</t>
   </si>
   <si>
@@ -610,9 +415,6 @@
     <t>Zou Kai</t>
   </si>
   <si>
-    <t>2008â€“2012</t>
-  </si>
-  <si>
     <t>Sue Bird</t>
   </si>
   <si>
@@ -628,9 +430,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>2004â€“2012</t>
-  </si>
-  <si>
     <t>Morris Fisher</t>
   </si>
   <si>
@@ -652,33 +451,15 @@
     <t>Raisa Smetanina</t>
   </si>
   <si>
-    <t>Soviet UnionÂ Unified Team</t>
-  </si>
-  <si>
-    <t>1976â€“1992</t>
-  </si>
-  <si>
     <t>Alexander Popov</t>
   </si>
   <si>
-    <t>Unified TeamÂ Russia</t>
-  </si>
-  <si>
-    <t>1992â€“2000</t>
-  </si>
-  <si>
     <t>Dara Torres</t>
   </si>
   <si>
-    <t>1984â€“2008</t>
-  </si>
-  <si>
     <t>Kornelia Ender</t>
   </si>
   <si>
-    <t>1972â€“1976</t>
-  </si>
-  <si>
     <t>Dawn Fraser</t>
   </si>
   <si>
@@ -691,42 +472,27 @@
     <t>Ludmilla Tourischeva</t>
   </si>
   <si>
-    <t>Ricco GroÃŸ</t>
-  </si>
-  <si>
     <t>Georges Miez</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>1924â€“1936</t>
-  </si>
-  <si>
     <t>Otto Olsen</t>
   </si>
   <si>
     <t>Emil Hegle Svendsen</t>
   </si>
   <si>
-    <t>2010â€“2018</t>
-  </si>
-  <si>
     <t>Ivan Patzaichin</t>
   </si>
   <si>
-    <t>1968â€“1984</t>
-  </si>
-  <si>
     <t>Alexei Nemov</t>
   </si>
   <si>
     <t>Sven Kramer</t>
   </si>
   <si>
-    <t>Kjetil AndrÃ© Aamodt</t>
-  </si>
-  <si>
     <t>Alpine skiing</t>
   </si>
   <si>
@@ -736,9 +502,6 @@
     <t>Sven Fischer</t>
   </si>
   <si>
-    <t>1994â€“2006</t>
-  </si>
-  <si>
     <t>Galina Kulakova</t>
   </si>
   <si>
@@ -751,24 +514,15 @@
     <t>Ivar Ballangrud</t>
   </si>
   <si>
-    <t>1928â€“1936</t>
-  </si>
-  <si>
     <t>Einar Liberg</t>
   </si>
   <si>
-    <t>1908â€“1924</t>
-  </si>
-  <si>
     <t>Giuseppe Delfino</t>
   </si>
   <si>
     <t>Christian d'Oriola</t>
   </si>
   <si>
-    <t>1948â€“1956</t>
-  </si>
-  <si>
     <t>Lucien Gaudin</t>
   </si>
   <si>
@@ -787,15 +541,9 @@
     <t>Olga Korbut</t>
   </si>
   <si>
-    <t>Janica KosteliÄ‡</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>2002â€“2006</t>
-  </si>
-  <si>
     <t>Kevin Kuske</t>
   </si>
   <si>
@@ -808,18 +556,12 @@
     <t>Giovanna Trillini</t>
   </si>
   <si>
-    <t>1992â€“2008</t>
-  </si>
-  <si>
     <t>Simone Biles</t>
   </si>
   <si>
     <t>Charles Daniels</t>
   </si>
   <si>
-    <t>1904â€“1908</t>
-  </si>
-  <si>
     <t>Kosuke Kitajima</t>
   </si>
   <si>
@@ -841,9 +583,6 @@
     <t>Kim Soo-Nyung</t>
   </si>
   <si>
-    <t>1988â€“2000</t>
-  </si>
-  <si>
     <t>Ryan Murphy</t>
   </si>
   <si>
@@ -853,24 +592,15 @@
     <t>Elena Novikova-Belova</t>
   </si>
   <si>
-    <t>1968â€“1980</t>
-  </si>
-  <si>
     <t>Murray Rose</t>
   </si>
   <si>
-    <t>1956â€“1960</t>
-  </si>
-  <si>
     <t>Viktor Sidyak</t>
   </si>
   <si>
     <t>Gunde Svan</t>
   </si>
   <si>
-    <t>1984â€“1988</t>
-  </si>
-  <si>
     <t>Leontien van Moorsel</t>
   </si>
   <si>
@@ -880,9 +610,6 @@
     <t>Wang Meng</t>
   </si>
   <si>
-    <t>2006â€“2010</t>
-  </si>
-  <si>
     <t>Ben Ainslie</t>
   </si>
   <si>
@@ -898,21 +625,12 @@
     <t>Janet Evans</t>
   </si>
   <si>
-    <t>1988â€“1992</t>
-  </si>
-  <si>
     <t>Ian Ferguson</t>
   </si>
   <si>
-    <t>RamÃ³n Fonst</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>1900â€“1904</t>
-  </si>
-  <si>
     <t>Fu Mingxia</t>
   </si>
   <si>
@@ -940,27 +658,15 @@
     <t>Johann Olav Koss</t>
   </si>
   <si>
-    <t>AndrÃ© Lange</t>
-  </si>
-  <si>
-    <t>2002â€“2010</t>
-  </si>
-  <si>
     <t>Greg Louganis</t>
   </si>
   <si>
-    <t>1976â€“1988</t>
-  </si>
-  <si>
     <t>Valentin Muratov</t>
   </si>
   <si>
     <t>John Naber</t>
   </si>
   <si>
-    <t>Matti NykÃ¤nen</t>
-  </si>
-  <si>
     <t>Ski jumping</t>
   </si>
   <si>
@@ -970,9 +676,6 @@
     <t>Mel Sheppard</t>
   </si>
   <si>
-    <t>1908â€“1912</t>
-  </si>
-  <si>
     <t>Ecaterina Szabo</t>
   </si>
   <si>
@@ -991,42 +694,18 @@
     <t>Tennis</t>
   </si>
   <si>
-    <t>Emil ZÃ¡topek</t>
-  </si>
-  <si>
-    <t>1948â€“1952</t>
-  </si>
-  <si>
     <t>Nikolay Zimyatov</t>
   </si>
   <si>
-    <t>1980â€“1984</t>
-  </si>
-  <si>
-    <t>GyÅ‘zÅ‘ KulcsÃ¡r</t>
-  </si>
-  <si>
-    <t>1964â€“1976</t>
-  </si>
-  <si>
     <t>Ludger Beerbaum</t>
   </si>
   <si>
-    <t>West GermanyÂ Germany</t>
-  </si>
-  <si>
-    <t>1988â€“2016</t>
-  </si>
-  <si>
     <t>Kathrin Boron</t>
   </si>
   <si>
     <t>Chun Lee-Kyung</t>
   </si>
   <si>
-    <t>1994â€“1998</t>
-  </si>
-  <si>
     <t>Teresa Edwards</t>
   </si>
   <si>
@@ -1075,36 +754,24 @@
     <t>Betty Cuthbert</t>
   </si>
   <si>
-    <t>TamÃ¡s Darnyi</t>
-  </si>
-  <si>
     <t>Deng Yaping</t>
   </si>
   <si>
     <t>Harrison Dillard</t>
   </si>
   <si>
-    <t>Paul Bert ElvstrÃ¸m</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>Anastasia Ermakova</t>
   </si>
   <si>
-    <t>2004â€“2008</t>
-  </si>
-  <si>
     <t>Mohamed Farah</t>
   </si>
   <si>
     <t>Sylvia Fowles</t>
   </si>
   <si>
-    <t>JenÅ‘ Fuchs</t>
-  </si>
-  <si>
     <t>Kaori Icho</t>
   </si>
   <si>
@@ -1132,33 +799,21 @@
     <t>Lisa Leslie</t>
   </si>
   <si>
-    <t>1996â€“2008</t>
-  </si>
-  <si>
     <t>Pat McCormick</t>
   </si>
   <si>
     <t>Al Oerter</t>
   </si>
   <si>
-    <t>1956â€“1968</t>
-  </si>
-  <si>
     <t>Caroline Ouellette</t>
   </si>
   <si>
-    <t>2002â€“2014</t>
-  </si>
-  <si>
     <t>Jesse Owens</t>
   </si>
   <si>
     <t>Carlo Pavesi</t>
   </si>
   <si>
-    <t>1952â€“1960</t>
-  </si>
-  <si>
     <t>Matthew Pinsent</t>
   </si>
   <si>
@@ -1168,18 +823,12 @@
     <t>Water polo, Swimming</t>
   </si>
   <si>
-    <t>1908â€“1920</t>
-  </si>
-  <si>
     <t>Henri Saint Cyr</t>
   </si>
   <si>
     <t>Vladimir Salnikov</t>
   </si>
   <si>
-    <t>1980â€“1988</t>
-  </si>
-  <si>
     <t>Carl Schuhmann</t>
   </si>
   <si>
@@ -1192,9 +841,6 @@
     <t>Nicole Uphoff</t>
   </si>
   <si>
-    <t>Lasse VirÃ©n</t>
-  </si>
-  <si>
     <t>Thomas Wassberg</t>
   </si>
   <si>
@@ -1204,20 +850,371 @@
     <t>Serena Williams</t>
   </si>
   <si>
-    <t>BÃ¤rbel WÃ¶ckel</t>
-  </si>
-  <si>
     <t>Zhang Yining</t>
   </si>
   <si>
     <t>United States of America</t>
+  </si>
+  <si>
+    <t>2004-2016</t>
+  </si>
+  <si>
+    <t>1956-1964</t>
+  </si>
+  <si>
+    <t>1920-1928</t>
+  </si>
+  <si>
+    <t>1968-1972</t>
+  </si>
+  <si>
+    <t>1984-1996</t>
+  </si>
+  <si>
+    <t>2002-2018</t>
+  </si>
+  <si>
+    <t>1998-2014</t>
+  </si>
+  <si>
+    <t>1992-1998</t>
+  </si>
+  <si>
+    <t>1980-2004</t>
+  </si>
+  <si>
+    <t>1968-1976</t>
+  </si>
+  <si>
+    <t>1992-2004</t>
+  </si>
+  <si>
+    <t>1984-1992</t>
+  </si>
+  <si>
+    <t>2008-2016</t>
+  </si>
+  <si>
+    <t>1900-1908</t>
+  </si>
+  <si>
+    <t>1972-1980</t>
+  </si>
+  <si>
+    <t>1992-2020</t>
+  </si>
+  <si>
+    <t>1960-1968</t>
+  </si>
+  <si>
+    <t>1952-1956</t>
+  </si>
+  <si>
+    <t>2004-2020</t>
+  </si>
+  <si>
+    <t>2012-2020</t>
+  </si>
+  <si>
+    <t>2008-2020</t>
+  </si>
+  <si>
+    <t>1932-1960</t>
+  </si>
+  <si>
+    <t>1936-1960</t>
+  </si>
+  <si>
+    <t>1900-1920</t>
+  </si>
+  <si>
+    <t>1992-1994</t>
+  </si>
+  <si>
+    <t>1996-2012</t>
+  </si>
+  <si>
+    <t>1948-1960</t>
+  </si>
+  <si>
+    <t>2000-2012</t>
+  </si>
+  <si>
+    <t>1992-1996</t>
+  </si>
+  <si>
+    <t>2006-2014</t>
+  </si>
+  <si>
+    <t>1964-1988</t>
+  </si>
+  <si>
+    <t>1912-1920</t>
+  </si>
+  <si>
+    <t>1960-1964</t>
+  </si>
+  <si>
+    <t>1996-2000</t>
+  </si>
+  <si>
+    <t>2006-2018</t>
+  </si>
+  <si>
+    <t>1952-1964</t>
+  </si>
+  <si>
+    <t>1912-1924</t>
+  </si>
+  <si>
+    <t>1996-2004</t>
+  </si>
+  <si>
+    <t>1976-1980</t>
+  </si>
+  <si>
+    <t>2000-2004</t>
+  </si>
+  <si>
+    <t>1924-1928</t>
+  </si>
+  <si>
+    <t>1992-2006</t>
+  </si>
+  <si>
+    <t>1984-2004</t>
+  </si>
+  <si>
+    <t>2014-2018</t>
+  </si>
+  <si>
+    <t>2000-2008</t>
+  </si>
+  <si>
+    <t>2000-2016</t>
+  </si>
+  <si>
+    <t>1988-1996</t>
+  </si>
+  <si>
+    <t>1956-1976</t>
+  </si>
+  <si>
+    <t>1994-2002</t>
+  </si>
+  <si>
+    <t>1920-1924</t>
+  </si>
+  <si>
+    <t>1964-1968</t>
+  </si>
+  <si>
+    <t>1988-1994</t>
+  </si>
+  <si>
+    <t>2012-2016</t>
+  </si>
+  <si>
+    <t>1984-2000</t>
+  </si>
+  <si>
+    <t>2008-2012</t>
+  </si>
+  <si>
+    <t>2004-2012</t>
+  </si>
+  <si>
+    <t>1976-1992</t>
+  </si>
+  <si>
+    <t>1992-2000</t>
+  </si>
+  <si>
+    <t>1984-2008</t>
+  </si>
+  <si>
+    <t>1972-1976</t>
+  </si>
+  <si>
+    <t>1924-1936</t>
+  </si>
+  <si>
+    <t>2010-2018</t>
+  </si>
+  <si>
+    <t>1968-1984</t>
+  </si>
+  <si>
+    <t>1994-2006</t>
+  </si>
+  <si>
+    <t>1928-1936</t>
+  </si>
+  <si>
+    <t>1908-1924</t>
+  </si>
+  <si>
+    <t>1948-1956</t>
+  </si>
+  <si>
+    <t>2002-2006</t>
+  </si>
+  <si>
+    <t>1992-2008</t>
+  </si>
+  <si>
+    <t>1904-1908</t>
+  </si>
+  <si>
+    <t>1988-2000</t>
+  </si>
+  <si>
+    <t>1968-1980</t>
+  </si>
+  <si>
+    <t>1956-1960</t>
+  </si>
+  <si>
+    <t>1984-1988</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>1988-1992</t>
+  </si>
+  <si>
+    <t>1900-1904</t>
+  </si>
+  <si>
+    <t>2002-2010</t>
+  </si>
+  <si>
+    <t>1976-1988</t>
+  </si>
+  <si>
+    <t>1908-1912</t>
+  </si>
+  <si>
+    <t>1948-1952</t>
+  </si>
+  <si>
+    <t>1980-1984</t>
+  </si>
+  <si>
+    <t>1964-1976</t>
+  </si>
+  <si>
+    <t>1988-2016</t>
+  </si>
+  <si>
+    <t>1994-1998</t>
+  </si>
+  <si>
+    <t>2004-2008</t>
+  </si>
+  <si>
+    <t>1996-2008</t>
+  </si>
+  <si>
+    <t>1956-1968</t>
+  </si>
+  <si>
+    <t>2002-2014</t>
+  </si>
+  <si>
+    <t>1952-1960</t>
+  </si>
+  <si>
+    <t>1908-1920</t>
+  </si>
+  <si>
+    <t>1980-1988</t>
+  </si>
+  <si>
+    <t>Marit Bjørgen</t>
+  </si>
+  <si>
+    <t>Ole Einar Bjørndalen</t>
+  </si>
+  <si>
+    <t>Bjørn Dæhlie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Věra Čáslavská</t>
+  </si>
+  <si>
+    <t>Aladár Gerevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pál Kovács</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Rudolf Kárpáti</t>
+  </si>
+  <si>
+    <t>Ireen Wüst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nadia Comăneci</t>
+  </si>
+  <si>
+    <t>Elisabeta Lipă</t>
+  </si>
+  <si>
+    <t>Hans Günter Winkler</t>
+  </si>
+  <si>
+    <t>Ricco Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kjetil André Aamodt</t>
+  </si>
+  <si>
+    <t>Janica Kostelić</t>
+  </si>
+  <si>
+    <t>Ramón Fonst</t>
+  </si>
+  <si>
+    <t>André Lange</t>
+  </si>
+  <si>
+    <t>Matti Nykänen</t>
+  </si>
+  <si>
+    <t>Emil Zátopek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Győző Kulcsár</t>
+  </si>
+  <si>
+    <t>Tamás Darnyi</t>
+  </si>
+  <si>
+    <t>Jenő Fuchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasse Virén	</t>
+  </si>
+  <si>
+    <t>Bärbel Wöckel</t>
+  </si>
+  <si>
+    <t>Paul Bert Elvstrøm</t>
+  </si>
+  <si>
+    <t>Danuta Kozák</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1348,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2050,11 +2054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,19 +2119,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -2147,22 +2151,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -2182,22 +2186,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -2217,22 +2221,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -2252,22 +2256,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -2287,22 +2291,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -2322,22 +2326,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -2357,22 +2361,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -2392,22 +2396,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -2427,22 +2431,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -2462,22 +2466,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -2497,22 +2501,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -2532,22 +2536,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -2567,22 +2571,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>283</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -2602,22 +2606,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -2637,22 +2641,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -2672,22 +2676,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -2707,22 +2711,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -2742,22 +2746,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -2777,22 +2781,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -2812,22 +2816,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -2847,22 +2851,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -2882,22 +2886,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>7</v>
@@ -2917,22 +2921,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>7</v>
@@ -2952,22 +2956,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26">
         <v>7</v>
@@ -2987,22 +2991,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -3022,22 +3026,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -3057,22 +3061,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3092,22 +3096,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30">
         <v>6</v>
@@ -3127,22 +3131,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3162,22 +3166,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3197,22 +3201,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -3232,22 +3236,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>386</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>6</v>
@@ -3267,22 +3271,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -3302,22 +3306,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36">
         <v>6</v>
@@ -3337,22 +3341,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -3372,22 +3376,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -3407,22 +3411,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39">
         <v>6</v>
@@ -3442,22 +3446,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>368</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -3477,22 +3481,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>6</v>
@@ -3512,10 +3516,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3524,10 +3528,10 @@
         <v>1988</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42">
         <v>6</v>
@@ -3547,22 +3551,22 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -3582,22 +3586,22 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -3617,22 +3621,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -3652,22 +3656,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -3687,22 +3691,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -3722,22 +3726,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -3757,22 +3761,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
         <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -3792,22 +3796,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
         <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -3827,22 +3831,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -3862,22 +3866,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -3897,22 +3901,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -3932,22 +3936,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
         <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -3967,22 +3971,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -4002,22 +4006,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -4037,22 +4041,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -4072,22 +4076,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -4107,22 +4111,22 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -4142,22 +4146,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -4177,22 +4181,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -4212,22 +4216,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -4247,22 +4251,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -4282,22 +4286,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -4317,22 +4321,22 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -4352,22 +4356,22 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E66">
         <v>1920</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -4387,22 +4391,22 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -4422,22 +4426,22 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -4457,22 +4461,22 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>372</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -4492,22 +4496,22 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -4527,22 +4531,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -4562,22 +4566,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>1904</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -4597,22 +4601,22 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -4632,22 +4636,22 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
         <v>17</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
         <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -4667,22 +4671,22 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -4702,22 +4706,22 @@
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -4737,22 +4741,22 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -4772,22 +4776,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -4807,22 +4811,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -4842,22 +4846,22 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -4877,22 +4881,22 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -4912,22 +4916,22 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -4947,22 +4951,22 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83">
         <v>5</v>
@@ -4982,22 +4986,22 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84">
         <v>5</v>
@@ -5017,22 +5021,22 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85">
         <v>5</v>
@@ -5052,22 +5056,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H86">
         <v>5</v>
@@ -5087,22 +5091,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -5122,22 +5126,22 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H88">
         <v>5</v>
@@ -5157,22 +5161,22 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E89" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -5192,22 +5196,22 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E90">
         <v>1980</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -5227,22 +5231,22 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -5262,22 +5266,22 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -5297,22 +5301,22 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D93" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H93">
         <v>5</v>
@@ -5332,22 +5336,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -5367,22 +5371,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H95">
         <v>4</v>
@@ -5402,22 +5406,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -5437,22 +5441,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -5472,22 +5476,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -5507,22 +5511,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -5542,22 +5546,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -5577,22 +5581,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
         <v>17</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>279</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
         <v>18</v>
-      </c>
-      <c r="E101" t="s">
-        <v>45</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -5612,22 +5616,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -5647,22 +5651,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -5682,22 +5686,22 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -5717,22 +5721,22 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -5752,22 +5756,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -5787,22 +5791,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -5822,22 +5826,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E108" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -5857,22 +5861,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -5892,22 +5896,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -5927,22 +5931,22 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -5962,22 +5966,22 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -5997,22 +6001,22 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H113">
         <v>4</v>
@@ -6032,22 +6036,22 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -6067,22 +6071,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -6102,22 +6106,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E116" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -6137,22 +6141,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -6172,22 +6176,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D118" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -6207,22 +6211,22 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119">
         <v>4</v>
@@ -6242,22 +6246,22 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -6277,22 +6281,22 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -6312,22 +6316,22 @@
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -6347,22 +6351,22 @@
         <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
         <v>17</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>329</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
         <v>18</v>
-      </c>
-      <c r="E123" t="s">
-        <v>218</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -6382,22 +6386,22 @@
         <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="D124" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="E124" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -6417,22 +6421,22 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -6452,22 +6456,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -6487,22 +6491,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D127" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -6522,22 +6526,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>180</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
         <v>18</v>
-      </c>
-      <c r="E128" t="s">
-        <v>80</v>
-      </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -6557,22 +6561,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -6592,22 +6596,22 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -6627,22 +6631,22 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="C131" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D131" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E131">
         <v>1920</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -6662,22 +6666,22 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -6697,22 +6701,22 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -6732,22 +6736,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E134" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H134">
         <v>4</v>
@@ -6767,22 +6771,22 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E135" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H135">
         <v>4</v>
@@ -6802,22 +6806,22 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -6837,22 +6841,22 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E137" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -6872,22 +6876,22 @@
         <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -6907,22 +6911,22 @@
         <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -6942,22 +6946,22 @@
         <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="C140" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -6977,22 +6981,22 @@
         <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="C141" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D141" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -7012,22 +7016,22 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H142">
         <v>4</v>
@@ -7047,22 +7051,22 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D143" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E143" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -7082,22 +7086,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D144" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="E144" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -7117,22 +7121,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
         <v>17</v>
-      </c>
-      <c r="D145" t="s">
-        <v>18</v>
       </c>
       <c r="E145">
         <v>1988</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -7152,22 +7156,22 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -7187,22 +7191,22 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H147">
         <v>4</v>
@@ -7222,22 +7226,22 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="D148" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -7257,22 +7261,22 @@
         <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="D149" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E149" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -7292,22 +7296,22 @@
         <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D150" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E150" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -7327,22 +7331,22 @@
         <v>143</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E151" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -7362,22 +7366,22 @@
         <v>143</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="D152" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -7397,22 +7401,22 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H153">
         <v>4</v>
@@ -7432,22 +7436,22 @@
         <v>143</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -7467,22 +7471,22 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E155" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -7502,22 +7506,22 @@
         <v>143</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="C156" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156">
         <v>4</v>
@@ -7537,22 +7541,22 @@
         <v>143</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D157" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -7572,22 +7576,22 @@
         <v>143</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
         <v>17</v>
       </c>
-      <c r="D158" t="s">
-        <v>18</v>
-      </c>
       <c r="E158" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -7607,10 +7611,10 @@
         <v>143</v>
       </c>
       <c r="B159" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="C159" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -7619,10 +7623,10 @@
         <v>1976</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -7642,22 +7646,22 @@
         <v>143</v>
       </c>
       <c r="B160" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="E160" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H160">
         <v>4</v>
@@ -7677,22 +7681,22 @@
         <v>143</v>
       </c>
       <c r="B161" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="C161" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E161" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H161">
         <v>4</v>
@@ -7712,22 +7716,22 @@
         <v>143</v>
       </c>
       <c r="B162" t="s">
-        <v>315</v>
+        <v>209</v>
       </c>
       <c r="C162" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -7747,22 +7751,22 @@
         <v>143</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>1984</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -7782,22 +7786,22 @@
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H164">
         <v>4</v>
@@ -7817,22 +7821,22 @@
         <v>143</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="C165" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D165" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E165" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -7852,22 +7856,22 @@
         <v>143</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="C166" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="D166" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -7887,22 +7891,22 @@
         <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D167" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="E167" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -7922,22 +7926,22 @@
         <v>143</v>
       </c>
       <c r="B168" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -7957,22 +7961,22 @@
         <v>143</v>
       </c>
       <c r="B169" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E169" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -7992,22 +7996,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="C170" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H170">
         <v>4</v>
@@ -8027,22 +8031,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="C171" t="s">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="D171" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H171">
         <v>4</v>
@@ -8062,22 +8066,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="C172" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E172" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -8097,22 +8101,22 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D173" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E173" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G173" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -8132,22 +8136,22 @@
         <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="C174" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D174" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E174" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -8167,22 +8171,22 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="C175" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="E175" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -8202,22 +8206,22 @@
         <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="C176" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D176" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E176">
         <v>1904</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H176">
         <v>4</v>
@@ -8237,22 +8241,22 @@
         <v>170</v>
       </c>
       <c r="B177" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="C177" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -8272,22 +8276,22 @@
         <v>170</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -8307,22 +8311,22 @@
         <v>170</v>
       </c>
       <c r="B179" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="C179" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="D179" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E179" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H179">
         <v>4</v>
@@ -8342,22 +8346,22 @@
         <v>170</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="C180" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D180" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -8377,22 +8381,22 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D181" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E181" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H181">
         <v>4</v>
@@ -8412,22 +8416,22 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="C182" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -8447,22 +8451,22 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="C183" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="D183" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="E183" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -8482,22 +8486,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="C184" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D184" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="E184" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H184">
         <v>4</v>
@@ -8517,22 +8521,22 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="C185" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D185" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E185">
         <v>1948</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H185">
         <v>4</v>
@@ -8552,22 +8556,22 @@
         <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="C186" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D186" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H186">
         <v>4</v>
@@ -8587,22 +8591,22 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="C187" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="D187" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H187">
         <v>4</v>
@@ -8622,22 +8626,22 @@
         <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H188">
         <v>4</v>
@@ -8657,22 +8661,22 @@
         <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="C189" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
       </c>
       <c r="E189" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H189">
         <v>4</v>
@@ -8692,22 +8696,22 @@
         <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="C190" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D190" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E190" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H190">
         <v>4</v>
@@ -8727,22 +8731,22 @@
         <v>182</v>
       </c>
       <c r="B191" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="C191" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H191">
         <v>4</v>
@@ -8762,22 +8766,22 @@
         <v>182</v>
       </c>
       <c r="B192" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="D192" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="E192" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H192">
         <v>4</v>
@@ -8797,22 +8801,22 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="C193" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="D193" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H193">
         <v>4</v>
@@ -8832,22 +8836,22 @@
         <v>182</v>
       </c>
       <c r="B194" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="C194" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H194">
         <v>4</v>
@@ -8867,22 +8871,22 @@
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="C195" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D195" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E195" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -8902,22 +8906,22 @@
         <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C196" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D196" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E196" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -8937,22 +8941,22 @@
         <v>182</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H197">
         <v>4</v>
@@ -8972,22 +8976,22 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E198" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H198">
         <v>4</v>
@@ -9007,22 +9011,22 @@
         <v>182</v>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="C199" t="s">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="D199" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E199" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -9042,22 +9046,22 @@
         <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="C200" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D200" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E200">
         <v>1900</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H200">
         <v>4</v>
@@ -9077,22 +9081,22 @@
         <v>182</v>
       </c>
       <c r="B201" t="s">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="C201" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H201">
         <v>4</v>
@@ -9112,22 +9116,22 @@
         <v>182</v>
       </c>
       <c r="B202" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E202" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H202">
         <v>4</v>
@@ -9147,22 +9151,22 @@
         <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>369</v>
+        <v>250</v>
       </c>
       <c r="C203" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D203" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E203" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -9182,22 +9186,22 @@
         <v>182</v>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="C204" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D204" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E204" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H204">
         <v>4</v>
@@ -9217,22 +9221,22 @@
         <v>182</v>
       </c>
       <c r="B205" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D205" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E205" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H205">
         <v>4</v>
@@ -9252,22 +9256,22 @@
         <v>182</v>
       </c>
       <c r="B206" t="s">
-        <v>374</v>
+        <v>253</v>
       </c>
       <c r="C206" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="D206" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="E206" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -9287,22 +9291,22 @@
         <v>182</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="C207" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D207" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E207">
         <v>1936</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -9322,22 +9326,22 @@
         <v>182</v>
       </c>
       <c r="B208" t="s">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="C208" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D208" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E208" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H208">
         <v>4</v>
@@ -9357,22 +9361,22 @@
         <v>182</v>
       </c>
       <c r="B209" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="C209" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H209">
         <v>4</v>
@@ -9392,22 +9396,22 @@
         <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="C210" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="E210" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H210">
         <v>4</v>
@@ -9427,22 +9431,22 @@
         <v>182</v>
       </c>
       <c r="B211" t="s">
-        <v>383</v>
+        <v>259</v>
       </c>
       <c r="C211" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D211" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E211" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H211">
         <v>4</v>
@@ -9462,22 +9466,22 @@
         <v>182</v>
       </c>
       <c r="B212" t="s">
-        <v>384</v>
+        <v>260</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -9497,22 +9501,22 @@
         <v>182</v>
       </c>
       <c r="B213" t="s">
-        <v>386</v>
+        <v>261</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>387</v>
+        <v>262</v>
       </c>
       <c r="E213">
         <v>1896</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -9532,22 +9536,22 @@
         <v>182</v>
       </c>
       <c r="B214" t="s">
-        <v>388</v>
+        <v>263</v>
       </c>
       <c r="C214" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D214" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E214" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H214">
         <v>4</v>
@@ -9567,22 +9571,22 @@
         <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="C215" t="s">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E215" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H215">
         <v>4</v>
@@ -9602,22 +9606,22 @@
         <v>182</v>
       </c>
       <c r="B216" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D216" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H216">
         <v>4</v>
@@ -9637,22 +9641,22 @@
         <v>182</v>
       </c>
       <c r="B217" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="C217" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E217" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H217">
         <v>4</v>
@@ -9672,22 +9676,22 @@
         <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H218">
         <v>4</v>
@@ -9707,22 +9711,22 @@
         <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="C219" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="D219" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="E219" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -9742,22 +9746,22 @@
         <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C220" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E220" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H220">
         <v>4</v>
@@ -9777,22 +9781,22 @@
         <v>182</v>
       </c>
       <c r="B221" t="s">
-        <v>395</v>
+        <v>268</v>
       </c>
       <c r="C221" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D221" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E221" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -9814,5 +9818,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/olympics_facts_clean.xlsx
+++ b/Output/olympics_facts_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\github\Projects\Data_Olympics_proj_2\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a3d8ea5720cd552/Documents/github/Projects/Data_Olympics_proj_2/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A97656E-11BA-409D-9FC0-012A415C251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5A97656E-11BA-409D-9FC0-012A415C251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944F9225-B80F-4973-BB77-8F2138EB1803}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="olympics_facts" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="387">
   <si>
     <t>No.</t>
   </si>
@@ -247,12 +247,6 @@
     <t>Vitaly Scherbo</t>
   </si>
   <si>
-    <t>Ahn Hyun-SooViktor Ahn</t>
-  </si>
-  <si>
-    <t>South Korea Russia</t>
-  </si>
-  <si>
     <t>Short track speed skating</t>
   </si>
   <si>
@@ -289,9 +283,6 @@
     <t>Gary Hall, Jr.</t>
   </si>
   <si>
-    <t>Ãgnes Keleti</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -1132,82 +1123,88 @@
     <t>1980-1988</t>
   </si>
   <si>
-    <t>Marit Bjørgen</t>
-  </si>
-  <si>
-    <t>Ole Einar Bjørndalen</t>
-  </si>
-  <si>
-    <t>Bjørn Dæhlie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Věra Čáslavská</t>
-  </si>
-  <si>
-    <t>Aladár Gerevich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Pál Kovács</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Rudolf Kárpáti</t>
   </si>
   <si>
-    <t>Ireen Wüst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Nadia Comăneci</t>
-  </si>
-  <si>
-    <t>Elisabeta Lipă</t>
-  </si>
-  <si>
-    <t>Hans Günter Winkler</t>
-  </si>
-  <si>
-    <t>Ricco Groß</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Kjetil André Aamodt</t>
   </si>
   <si>
-    <t>Janica Kostelić</t>
-  </si>
-  <si>
-    <t>Ramón Fonst</t>
-  </si>
-  <si>
-    <t>André Lange</t>
-  </si>
-  <si>
-    <t>Matti Nykänen</t>
-  </si>
-  <si>
-    <t>Emil Zátopek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Győző Kulcsár</t>
-  </si>
-  <si>
-    <t>Tamás Darnyi</t>
-  </si>
-  <si>
-    <t>Jenő Fuchs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasse Virén	</t>
-  </si>
-  <si>
-    <t>Bärbel Wöckel</t>
-  </si>
-  <si>
-    <t>Paul Bert Elvstrøm</t>
-  </si>
-  <si>
-    <t>Danuta Kozák</t>
-  </si>
-  <si>
     <t>ROC</t>
+  </si>
+  <si>
+    <t>Viktor Ahn</t>
+  </si>
+  <si>
+    <t>Barbel Wockel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasse Viren	</t>
+  </si>
+  <si>
+    <t>Jeno Fuchs</t>
+  </si>
+  <si>
+    <t>Paul Bert Elvstrom</t>
+  </si>
+  <si>
+    <t>Tamas Darnyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Gyozo Kulcsár</t>
+  </si>
+  <si>
+    <t>Emil Zatopek</t>
+  </si>
+  <si>
+    <t>Matti Nykanen</t>
+  </si>
+  <si>
+    <t>Andre Lange</t>
+  </si>
+  <si>
+    <t>Ramon Fonst</t>
+  </si>
+  <si>
+    <t>Janica Kostelic</t>
+  </si>
+  <si>
+    <t>Ricco Grob</t>
+  </si>
+  <si>
+    <t>Hans Gunter Winkler</t>
+  </si>
+  <si>
+    <t>Elisabeta Lipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nadia Comaneci</t>
+  </si>
+  <si>
+    <t>Agnes Keleti</t>
+  </si>
+  <si>
+    <t>Ireen Wust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pal Kovacs</t>
+  </si>
+  <si>
+    <t>Danuta Kozak</t>
+  </si>
+  <si>
+    <t>Aladar Gerevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Vera Caslavska</t>
+  </si>
+  <si>
+    <t>Ole Einar Bjorndalen</t>
+  </si>
+  <si>
+    <t>Bjorn Daehlie</t>
+  </si>
+  <si>
+    <t>Marit Bjorgen</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K222"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,13 +2116,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -2160,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -2195,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -2224,13 +2221,13 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -2259,13 +2256,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -2291,7 +2288,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -2300,7 +2297,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2326,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2335,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -2361,7 +2358,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2370,7 +2367,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -2405,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -2440,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -2469,13 +2466,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2504,13 +2501,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2545,7 +2542,7 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -2574,13 +2571,13 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -2615,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -2650,7 +2647,7 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -2685,7 +2682,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -2711,7 +2708,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2720,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -2755,7 +2752,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -2784,13 +2781,13 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -2819,13 +2816,13 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -2860,7 +2857,7 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -2886,7 +2883,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -2895,7 +2892,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2924,13 +2921,13 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -2959,13 +2956,13 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -3000,7 +2997,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -3029,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -3070,7 +3067,7 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -3099,13 +3096,13 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
@@ -3140,7 +3137,7 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -3175,7 +3172,7 @@
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -3210,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -3236,7 +3233,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -3245,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -3280,7 +3277,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -3309,13 +3306,13 @@
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -3341,16 +3338,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -3376,7 +3373,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -3385,7 +3382,7 @@
         <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -3411,7 +3408,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
@@ -3420,7 +3417,7 @@
         <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -3446,7 +3443,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
@@ -3455,7 +3452,7 @@
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -3481,7 +3478,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
@@ -3490,7 +3487,7 @@
         <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -3516,7 +3513,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -3551,16 +3548,16 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
@@ -3586,16 +3583,16 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -3621,16 +3618,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
@@ -3656,7 +3653,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -3665,7 +3662,7 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -3691,16 +3688,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -3726,16 +3723,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -3761,7 +3758,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
         <v>49</v>
@@ -3770,7 +3767,7 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -3796,16 +3793,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -3831,16 +3828,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -3866,7 +3863,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -3875,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -3901,16 +3898,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -3936,7 +3933,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -3945,7 +3942,7 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -3971,16 +3968,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
@@ -4006,16 +4003,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -4041,7 +4038,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -4050,7 +4047,7 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -4076,16 +4073,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -4111,16 +4108,16 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -4146,7 +4143,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -4155,7 +4152,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4181,16 +4178,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4216,7 +4213,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
         <v>47</v>
@@ -4225,7 +4222,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -4251,7 +4248,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
         <v>49</v>
@@ -4260,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -4286,16 +4283,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -4321,16 +4318,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
@@ -4356,13 +4353,13 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E66">
         <v>1920</v>
@@ -4391,16 +4388,16 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F67" t="s">
         <v>26</v>
@@ -4426,16 +4423,16 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -4461,7 +4458,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
@@ -4470,7 +4467,7 @@
         <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -4496,16 +4493,16 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -4531,7 +4528,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
@@ -4540,7 +4537,7 @@
         <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F71" t="s">
         <v>26</v>
@@ -4566,10 +4563,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -4601,7 +4598,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
         <v>47</v>
@@ -4610,7 +4607,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -4636,7 +4633,7 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -4645,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -4671,16 +4668,16 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -4706,16 +4703,16 @@
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -4741,7 +4738,7 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -4750,7 +4747,7 @@
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
@@ -4776,16 +4773,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F78" t="s">
         <v>26</v>
@@ -4811,16 +4808,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -4846,16 +4843,16 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -4881,16 +4878,16 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -4916,16 +4913,16 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -4951,16 +4948,16 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -4986,16 +4983,16 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E84" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -5021,16 +5018,16 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -5056,16 +5053,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -5091,16 +5088,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -5126,16 +5123,16 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
         <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -5161,16 +5158,16 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E89" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -5196,13 +5193,13 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E90">
         <v>1980</v>
@@ -5231,16 +5228,16 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
         <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -5266,16 +5263,16 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E92" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -5301,16 +5298,16 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -5336,7 +5333,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -5345,7 +5342,7 @@
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F94" t="s">
         <v>26</v>
@@ -5371,16 +5368,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -5406,16 +5403,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -5441,7 +5438,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
         <v>39</v>
@@ -5450,7 +5447,7 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -5476,16 +5473,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -5511,16 +5508,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -5546,7 +5543,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
         <v>64</v>
@@ -5555,7 +5552,7 @@
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F100" t="s">
         <v>26</v>
@@ -5581,7 +5578,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -5590,7 +5587,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -5616,7 +5613,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C102" t="s">
         <v>39</v>
@@ -5625,7 +5622,7 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F102" t="s">
         <v>26</v>
@@ -5651,16 +5648,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -5686,16 +5683,16 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -5721,7 +5718,7 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -5730,7 +5727,7 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F105" t="s">
         <v>26</v>
@@ -5756,16 +5753,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -5791,16 +5788,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -5826,16 +5823,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E108" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F108" t="s">
         <v>26</v>
@@ -5861,16 +5858,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
         <v>26</v>
@@ -5896,16 +5893,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -5931,7 +5928,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
         <v>39</v>
@@ -5940,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F111" t="s">
         <v>26</v>
@@ -5966,7 +5963,7 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -5975,7 +5972,7 @@
         <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F112" t="s">
         <v>26</v>
@@ -6001,16 +5998,16 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -6036,7 +6033,7 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
         <v>39</v>
@@ -6045,7 +6042,7 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -6071,16 +6068,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F115" t="s">
         <v>26</v>
@@ -6106,16 +6103,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E116" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -6141,7 +6138,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
         <v>55</v>
@@ -6150,7 +6147,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -6176,16 +6173,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -6211,16 +6208,16 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -6246,16 +6243,16 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -6281,16 +6278,16 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E121" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -6316,16 +6313,16 @@
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D122" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E122" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -6351,7 +6348,7 @@
         <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
@@ -6360,7 +6357,7 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -6386,16 +6383,16 @@
         <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C124" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E124" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F124" t="s">
         <v>26</v>
@@ -6421,16 +6418,16 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C125" t="s">
         <v>39</v>
       </c>
       <c r="D125" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E125" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F125" t="s">
         <v>26</v>
@@ -6456,16 +6453,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -6491,7 +6488,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s">
         <v>55</v>
@@ -6500,7 +6497,7 @@
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
@@ -6526,16 +6523,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
@@ -6561,16 +6558,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C129" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
@@ -6596,7 +6593,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -6605,7 +6602,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
@@ -6631,13 +6628,13 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E131">
         <v>1920</v>
@@ -6666,16 +6663,16 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
@@ -6701,16 +6698,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
         <v>26</v>
@@ -6736,16 +6733,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E134" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
@@ -6771,16 +6768,16 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D135" t="s">
         <v>59</v>
       </c>
       <c r="E135" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
@@ -6806,16 +6803,16 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
@@ -6841,7 +6838,7 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
@@ -6850,7 +6847,7 @@
         <v>50</v>
       </c>
       <c r="E137" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
@@ -6876,16 +6873,16 @@
         <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F138" t="s">
         <v>13</v>
@@ -6911,7 +6908,7 @@
         <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
@@ -6920,7 +6917,7 @@
         <v>50</v>
       </c>
       <c r="E139" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
@@ -6946,7 +6943,7 @@
         <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
         <v>64</v>
@@ -6955,7 +6952,7 @@
         <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F140" t="s">
         <v>26</v>
@@ -6981,16 +6978,16 @@
         <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C141" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D141" t="s">
         <v>48</v>
       </c>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -7016,7 +7013,7 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
         <v>39</v>
@@ -7025,7 +7022,7 @@
         <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
@@ -7051,16 +7048,16 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E143" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F143" t="s">
         <v>26</v>
@@ -7086,16 +7083,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C144" t="s">
         <v>47</v>
       </c>
       <c r="D144" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E144" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -7121,7 +7118,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
@@ -7156,16 +7153,16 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D146" t="s">
         <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
@@ -7191,16 +7188,16 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
@@ -7226,16 +7223,16 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C148" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
@@ -7261,16 +7258,16 @@
         <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D149" t="s">
         <v>50</v>
       </c>
       <c r="E149" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
@@ -7296,16 +7293,16 @@
         <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D150" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E150" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
@@ -7331,16 +7328,16 @@
         <v>143</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -7366,16 +7363,16 @@
         <v>143</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D152" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E152" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -7401,16 +7398,16 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
@@ -7436,7 +7433,7 @@
         <v>143</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C154" t="s">
         <v>20</v>
@@ -7445,7 +7442,7 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
@@ -7471,16 +7468,16 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -7506,16 +7503,16 @@
         <v>143</v>
       </c>
       <c r="B156" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C156" t="s">
         <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E156" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>
@@ -7541,16 +7538,16 @@
         <v>143</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D157" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E157" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
@@ -7576,7 +7573,7 @@
         <v>143</v>
       </c>
       <c r="B158" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
@@ -7585,7 +7582,7 @@
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
@@ -7611,10 +7608,10 @@
         <v>143</v>
       </c>
       <c r="B159" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -7646,16 +7643,16 @@
         <v>143</v>
       </c>
       <c r="B160" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C160" t="s">
         <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E160" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -7681,16 +7678,16 @@
         <v>143</v>
       </c>
       <c r="B161" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D161" t="s">
         <v>40</v>
       </c>
       <c r="E161" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
@@ -7716,16 +7713,16 @@
         <v>143</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D162" t="s">
         <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
@@ -7751,10 +7748,10 @@
         <v>143</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
@@ -7786,7 +7783,7 @@
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C164" t="s">
         <v>16</v>
@@ -7795,7 +7792,7 @@
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F164" t="s">
         <v>26</v>
@@ -7821,16 +7818,16 @@
         <v>143</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C165" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D165" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
@@ -7856,16 +7853,16 @@
         <v>143</v>
       </c>
       <c r="B166" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E166" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F166" t="s">
         <v>26</v>
@@ -7891,16 +7888,16 @@
         <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D167" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -7926,7 +7923,7 @@
         <v>143</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C168" t="s">
         <v>42</v>
@@ -7935,7 +7932,7 @@
         <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -7961,7 +7958,7 @@
         <v>143</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
@@ -7970,7 +7967,7 @@
         <v>25</v>
       </c>
       <c r="E169" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F169" t="s">
         <v>26</v>
@@ -7996,7 +7993,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C170" t="s">
         <v>49</v>
@@ -8005,7 +8002,7 @@
         <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F170" t="s">
         <v>13</v>
@@ -8031,7 +8028,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
         <v>39</v>
@@ -8040,7 +8037,7 @@
         <v>40</v>
       </c>
       <c r="E171" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
@@ -8066,16 +8063,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s">
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
         <v>13</v>
@@ -8101,16 +8098,16 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C173" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E173" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F173" t="s">
         <v>26</v>
@@ -8136,16 +8133,16 @@
         <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C174" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D174" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E174" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -8171,16 +8168,16 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C175" t="s">
         <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
         <v>26</v>
@@ -8206,10 +8203,10 @@
         <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D176" t="s">
         <v>48</v>
@@ -8241,16 +8238,16 @@
         <v>170</v>
       </c>
       <c r="B177" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C177" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D177" t="s">
         <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -8276,16 +8273,16 @@
         <v>170</v>
       </c>
       <c r="B178" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C178" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -8311,16 +8308,16 @@
         <v>170</v>
       </c>
       <c r="B179" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C179" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D179" t="s">
         <v>50</v>
       </c>
       <c r="E179" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -8346,16 +8343,16 @@
         <v>170</v>
       </c>
       <c r="B180" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -8381,16 +8378,16 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C181" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D181" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E181" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
@@ -8416,7 +8413,7 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C182" t="s">
         <v>55</v>
@@ -8425,7 +8422,7 @@
         <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
@@ -8451,16 +8448,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C183" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D183" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
         <v>26</v>
@@ -8486,16 +8483,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C184" t="s">
         <v>39</v>
       </c>
       <c r="D184" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E184" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F184" t="s">
         <v>26</v>
@@ -8521,10 +8518,10 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D185" t="s">
         <v>21</v>
@@ -8556,16 +8553,16 @@
         <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D186" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E186" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
@@ -8591,16 +8588,16 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C187" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D187" t="s">
         <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F187" t="s">
         <v>26</v>
@@ -8626,16 +8623,16 @@
         <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C188" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D188" t="s">
         <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
@@ -8661,7 +8658,7 @@
         <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C189" t="s">
         <v>49</v>
@@ -8670,7 +8667,7 @@
         <v>12</v>
       </c>
       <c r="E189" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
@@ -8696,16 +8693,16 @@
         <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C190" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D190" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E190" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
@@ -8731,16 +8728,16 @@
         <v>182</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D191" t="s">
         <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
@@ -8766,16 +8763,16 @@
         <v>182</v>
       </c>
       <c r="B192" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C192" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D192" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E192" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
@@ -8801,16 +8798,16 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C193" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D193" t="s">
         <v>53</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F193" t="s">
         <v>13</v>
@@ -8836,7 +8833,7 @@
         <v>182</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C194" t="s">
         <v>47</v>
@@ -8845,7 +8842,7 @@
         <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
@@ -8871,16 +8868,16 @@
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D195" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E195" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F195" t="s">
         <v>13</v>
@@ -8906,7 +8903,7 @@
         <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C196" t="s">
         <v>49</v>
@@ -8915,7 +8912,7 @@
         <v>50</v>
       </c>
       <c r="E196" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F196" t="s">
         <v>13</v>
@@ -8941,16 +8938,16 @@
         <v>182</v>
       </c>
       <c r="B197" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
         <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E197" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
@@ -8976,16 +8973,16 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D198" t="s">
         <v>21</v>
       </c>
       <c r="E198" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
@@ -9011,16 +9008,16 @@
         <v>182</v>
       </c>
       <c r="B199" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C199" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D199" t="s">
         <v>21</v>
       </c>
       <c r="E199" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -9046,10 +9043,10 @@
         <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C200" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D200" t="s">
         <v>21</v>
@@ -9081,16 +9078,16 @@
         <v>182</v>
       </c>
       <c r="B201" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
@@ -9116,7 +9113,7 @@
         <v>182</v>
       </c>
       <c r="B202" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
@@ -9125,7 +9122,7 @@
         <v>50</v>
       </c>
       <c r="E202" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
@@ -9151,16 +9148,16 @@
         <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C203" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D203" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E203" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
@@ -9186,16 +9183,16 @@
         <v>182</v>
       </c>
       <c r="B204" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C204" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D204" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E204" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F204" t="s">
         <v>13</v>
@@ -9221,16 +9218,16 @@
         <v>182</v>
       </c>
       <c r="B205" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C205" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D205" t="s">
         <v>21</v>
       </c>
       <c r="E205" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F205" t="s">
         <v>13</v>
@@ -9256,16 +9253,16 @@
         <v>182</v>
       </c>
       <c r="B206" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C206" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D206" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E206" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F206" t="s">
         <v>26</v>
@@ -9291,10 +9288,10 @@
         <v>182</v>
       </c>
       <c r="B207" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C207" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D207" t="s">
         <v>21</v>
@@ -9326,7 +9323,7 @@
         <v>182</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C208" t="s">
         <v>55</v>
@@ -9335,7 +9332,7 @@
         <v>50</v>
       </c>
       <c r="E208" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
@@ -9361,16 +9358,16 @@
         <v>182</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C209" t="s">
         <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E209" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
@@ -9396,16 +9393,16 @@
         <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C210" t="s">
         <v>47</v>
       </c>
       <c r="D210" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E210" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
@@ -9431,7 +9428,7 @@
         <v>182</v>
       </c>
       <c r="B211" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C211" t="s">
         <v>64</v>
@@ -9440,7 +9437,7 @@
         <v>40</v>
       </c>
       <c r="E211" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
@@ -9466,7 +9463,7 @@
         <v>182</v>
       </c>
       <c r="B212" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C212" t="s">
         <v>16</v>
@@ -9475,7 +9472,7 @@
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
@@ -9501,13 +9498,13 @@
         <v>182</v>
       </c>
       <c r="B213" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C213" t="s">
         <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E213">
         <v>1896</v>
@@ -9536,16 +9533,16 @@
         <v>182</v>
       </c>
       <c r="B214" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C214" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D214" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E214" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
@@ -9571,7 +9568,7 @@
         <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C215" t="s">
         <v>39</v>
@@ -9580,7 +9577,7 @@
         <v>40</v>
       </c>
       <c r="E215" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
@@ -9606,7 +9603,7 @@
         <v>182</v>
       </c>
       <c r="B216" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
         <v>20</v>
@@ -9615,7 +9612,7 @@
         <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
@@ -9641,7 +9638,7 @@
         <v>182</v>
       </c>
       <c r="B217" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C217" t="s">
         <v>64</v>
@@ -9650,7 +9647,7 @@
         <v>25</v>
       </c>
       <c r="E217" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F217" t="s">
         <v>26</v>
@@ -9676,16 +9673,16 @@
         <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C218" t="s">
         <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F218" t="s">
         <v>26</v>
@@ -9711,16 +9708,16 @@
         <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C219" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D219" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E219" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
@@ -9746,7 +9743,7 @@
         <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C220" t="s">
         <v>39</v>
@@ -9755,7 +9752,7 @@
         <v>21</v>
       </c>
       <c r="E220" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
@@ -9781,16 +9778,16 @@
         <v>182</v>
       </c>
       <c r="B221" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C221" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D221" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E221" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
@@ -9809,11 +9806,6 @@
       </c>
       <c r="K221">
         <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
